--- a/assets/sampleExcel/sample (moshaver).xlsx
+++ b/assets/sampleExcel/sample (moshaver).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\WebstormProjects\bonyad\assets\sampleExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7744F0C7-9298-4273-AAC8-EF0FBF78276B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28958302-E37A-4F00-8924-D57F7A4A2306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4C6E4011-DB4A-45A9-A7BD-FF94BB3596EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C6E4011-DB4A-45A9-A7BD-FF94BB3596EC}"/>
   </bookViews>
   <sheets>
     <sheet name="sample moshaver" sheetId="2" r:id="rId1"/>
@@ -8835,8 +8835,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8845,6 +8845,7 @@
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -9289,8 +9290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE959FDC-43AB-4480-8067-EFDA6EAB4485}">
   <dimension ref="A1:AR1355"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AD114"/>
+    <sheetView rightToLeft="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/assets/sampleExcel/sample (moshaver).xlsx
+++ b/assets/sampleExcel/sample (moshaver).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\WebstormProjects\bonyad\assets\sampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28958302-E37A-4F00-8924-D57F7A4A2306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04CE859-20B9-4ED2-9C6E-015AF2523E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C6E4011-DB4A-45A9-A7BD-FF94BB3596EC}"/>
   </bookViews>
@@ -8418,23 +8418,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C3058D23-9A75-4607-9BF2-152B2130A3B1}" name="Table152" displayName="Table152" ref="F1:G4" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="F1:G4" xr:uid="{C3058D23-9A75-4607-9BF2-152B2130A3B1}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C3058D23-9A75-4607-9BF2-152B2130A3B1}" name="Table152" displayName="Table152" ref="F1:F4" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="F1:F4" xr:uid="{C3058D23-9A75-4607-9BF2-152B2130A3B1}"/>
+  <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{07D75668-1E55-4836-A8A8-AD871EF10F9A}" name="استان"/>
-    <tableColumn id="3" xr3:uid="{55724329-F94E-43B3-B926-B28B7A418FBC}" name="province" dataDxfId="0">
-      <calculatedColumnFormula>VLOOKUP(Table152[[#This Row],[استان]],Data!E1:G31,3,FALSE)</calculatedColumnFormula>
-    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F75DE75F-D0EF-416D-8CA1-62E0BDBC7E4F}" name="Table163" displayName="Table163" ref="H1:H4" insertRowShift="1" totalsRowShown="0">
-  <autoFilter ref="H1:H4" xr:uid="{F75DE75F-D0EF-416D-8CA1-62E0BDBC7E4F}"/>
-  <tableColumns count="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F75DE75F-D0EF-416D-8CA1-62E0BDBC7E4F}" name="Table163" displayName="Table163" ref="G1:H4" insertRowShift="1" totalsRowShown="0">
+  <autoFilter ref="G1:H4" xr:uid="{F75DE75F-D0EF-416D-8CA1-62E0BDBC7E4F}"/>
+  <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4BD35083-829B-4283-B854-2629EE51EABC}" name="شهر"/>
+    <tableColumn id="3" xr3:uid="{9015AE4B-062F-442C-B3C2-772F07EE73D5}" name="province" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(Table152[[#This Row],[استان]],Data!E1:G31,3,FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8836,7 +8836,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8845,7 +8845,8 @@
     <col min="2" max="2" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -8868,10 +8869,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>2750</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -8891,14 +8892,14 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="str">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>803</v>
+      </c>
+      <c r="H2" t="str">
         <f>VLOOKUP(Table152[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
-        <v>alborz</v>
-      </c>
-      <c r="H2" t="s">
-        <v>803</v>
+        <v>sKhorasan</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -8920,12 +8921,12 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" t="str">
         <f>VLOOKUP(Table152[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
         <v>chaharmahal</v>
-      </c>
-      <c r="H3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -8947,12 +8948,12 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" t="s">
+        <v>788</v>
+      </c>
+      <c r="H4" t="str">
         <f>VLOOKUP(Table152[[#This Row],[استان]],Data!E2:G32,3,FALSE)</f>
         <v>zanjan</v>
-      </c>
-      <c r="H4" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
@@ -9261,21 +9262,15 @@
       <c r="A69" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="3">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5" xr:uid="{DF60704F-06EF-4CE3-A73D-671CA5C8582E}">
       <formula1>IF(#REF!=#REF!,)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{E781FBFD-5C67-4BA1-B512-6F827E33AC2B}">
       <formula1>provinces</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{FB93B865-F2ED-4563-B5AA-A70D1B33E633}">
-      <formula1>INDIRECT($G$4)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{9CDFE80E-1700-499A-B94E-7C2CDDDAF3AB}">
-      <formula1>INDIRECT($G$2)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{8AF0C8A0-FA1D-4973-AB5D-4755480C4B58}">
-      <formula1>INDIRECT($G$3)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{FB93B865-F2ED-4563-B5AA-A70D1B33E633}">
+      <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9290,7 +9285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE959FDC-43AB-4480-8067-EFDA6EAB4485}">
   <dimension ref="A1:AR1355"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
